--- a/files/corretor_venda.xlsx
+++ b/files/corretor_venda.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28209"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projetos_estudo\tcc-ibmr-2024\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FC0BC9-1449-44DD-A4F9-1771A00560E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{79FC0BC9-1449-44DD-A4F9-1771A00560E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{334278C7-29D2-4D25-942C-393F15F0FC0B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{295DC67A-7C23-4671-998C-AF698379DF56}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="475">
   <si>
     <t>num_venda</t>
   </si>
@@ -45,6 +45,1422 @@
   </si>
   <si>
     <t>num_equipe</t>
+  </si>
+  <si>
+    <t>8215</t>
+  </si>
+  <si>
+    <t>3729</t>
+  </si>
+  <si>
+    <t>4343</t>
+  </si>
+  <si>
+    <t>6447</t>
+  </si>
+  <si>
+    <t>7859</t>
+  </si>
+  <si>
+    <t>5396</t>
+  </si>
+  <si>
+    <t>2962</t>
+  </si>
+  <si>
+    <t>3265</t>
+  </si>
+  <si>
+    <t>6041</t>
+  </si>
+  <si>
+    <t>7262</t>
+  </si>
+  <si>
+    <t>6338</t>
+  </si>
+  <si>
+    <t>5770</t>
+  </si>
+  <si>
+    <t>3723</t>
+  </si>
+  <si>
+    <t>6866</t>
+  </si>
+  <si>
+    <t>5547</t>
+  </si>
+  <si>
+    <t>9968</t>
+  </si>
+  <si>
+    <t>5792</t>
+  </si>
+  <si>
+    <t>9743</t>
+  </si>
+  <si>
+    <t>6124</t>
+  </si>
+  <si>
+    <t>2077</t>
+  </si>
+  <si>
+    <t>1885</t>
+  </si>
+  <si>
+    <t>6477</t>
+  </si>
+  <si>
+    <t>3285</t>
+  </si>
+  <si>
+    <t>4545</t>
+  </si>
+  <si>
+    <t>5404</t>
+  </si>
+  <si>
+    <t>9464</t>
+  </si>
+  <si>
+    <t>1069</t>
+  </si>
+  <si>
+    <t>3583</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>3170</t>
+  </si>
+  <si>
+    <t>5293</t>
+  </si>
+  <si>
+    <t>4450</t>
+  </si>
+  <si>
+    <t>5091</t>
+  </si>
+  <si>
+    <t>5978</t>
+  </si>
+  <si>
+    <t>2380</t>
+  </si>
+  <si>
+    <t>6643</t>
+  </si>
+  <si>
+    <t>1920</t>
+  </si>
+  <si>
+    <t>2946</t>
+  </si>
+  <si>
+    <t>7616</t>
+  </si>
+  <si>
+    <t>9556</t>
+  </si>
+  <si>
+    <t>9793</t>
+  </si>
+  <si>
+    <t>4421</t>
+  </si>
+  <si>
+    <t>5143</t>
+  </si>
+  <si>
+    <t>4189</t>
+  </si>
+  <si>
+    <t>1042</t>
+  </si>
+  <si>
+    <t>5268</t>
+  </si>
+  <si>
+    <t>8635</t>
+  </si>
+  <si>
+    <t>7939</t>
+  </si>
+  <si>
+    <t>7172</t>
+  </si>
+  <si>
+    <t>2480</t>
+  </si>
+  <si>
+    <t>5242</t>
+  </si>
+  <si>
+    <t>2352</t>
+  </si>
+  <si>
+    <t>1945</t>
+  </si>
+  <si>
+    <t>5183</t>
+  </si>
+  <si>
+    <t>1485</t>
+  </si>
+  <si>
+    <t>7599</t>
+  </si>
+  <si>
+    <t>4349</t>
+  </si>
+  <si>
+    <t>1435</t>
+  </si>
+  <si>
+    <t>6930</t>
+  </si>
+  <si>
+    <t>3629</t>
+  </si>
+  <si>
+    <t>5126</t>
+  </si>
+  <si>
+    <t>4325</t>
+  </si>
+  <si>
+    <t>1412</t>
+  </si>
+  <si>
+    <t>1201</t>
+  </si>
+  <si>
+    <t>2625</t>
+  </si>
+  <si>
+    <t>1053</t>
+  </si>
+  <si>
+    <t>3035</t>
+  </si>
+  <si>
+    <t>9511</t>
+  </si>
+  <si>
+    <t>8617</t>
+  </si>
+  <si>
+    <t>5292</t>
+  </si>
+  <si>
+    <t>6584</t>
+  </si>
+  <si>
+    <t>2281</t>
+  </si>
+  <si>
+    <t>1955</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2837</t>
+  </si>
+  <si>
+    <t>8786</t>
+  </si>
+  <si>
+    <t>2803</t>
+  </si>
+  <si>
+    <t>1977</t>
+  </si>
+  <si>
+    <t>5686</t>
+  </si>
+  <si>
+    <t>5853</t>
+  </si>
+  <si>
+    <t>7406</t>
+  </si>
+  <si>
+    <t>4449</t>
+  </si>
+  <si>
+    <t>5503</t>
+  </si>
+  <si>
+    <t>3626</t>
+  </si>
+  <si>
+    <t>9670</t>
+  </si>
+  <si>
+    <t>4191</t>
+  </si>
+  <si>
+    <t>8997</t>
+  </si>
+  <si>
+    <t>2532</t>
+  </si>
+  <si>
+    <t>4129</t>
+  </si>
+  <si>
+    <t>6110</t>
+  </si>
+  <si>
+    <t>1408</t>
+  </si>
+  <si>
+    <t>5335</t>
+  </si>
+  <si>
+    <t>4629</t>
+  </si>
+  <si>
+    <t>3739</t>
+  </si>
+  <si>
+    <t>9523</t>
+  </si>
+  <si>
+    <t>6432</t>
+  </si>
+  <si>
+    <t>5095</t>
+  </si>
+  <si>
+    <t>7067</t>
+  </si>
+  <si>
+    <t>8354</t>
+  </si>
+  <si>
+    <t>4216</t>
+  </si>
+  <si>
+    <t>3463</t>
+  </si>
+  <si>
+    <t>5899</t>
+  </si>
+  <si>
+    <t>9303</t>
+  </si>
+  <si>
+    <t>9237</t>
+  </si>
+  <si>
+    <t>4917</t>
+  </si>
+  <si>
+    <t>8443</t>
+  </si>
+  <si>
+    <t>3350</t>
+  </si>
+  <si>
+    <t>1793</t>
+  </si>
+  <si>
+    <t>8649</t>
+  </si>
+  <si>
+    <t>3912</t>
+  </si>
+  <si>
+    <t>9824</t>
+  </si>
+  <si>
+    <t>9056</t>
+  </si>
+  <si>
+    <t>4482</t>
+  </si>
+  <si>
+    <t>2119</t>
+  </si>
+  <si>
+    <t>9877</t>
+  </si>
+  <si>
+    <t>5833</t>
+  </si>
+  <si>
+    <t>9248</t>
+  </si>
+  <si>
+    <t>6311</t>
+  </si>
+  <si>
+    <t>8232</t>
+  </si>
+  <si>
+    <t>5490</t>
+  </si>
+  <si>
+    <t>4372</t>
+  </si>
+  <si>
+    <t>8032</t>
+  </si>
+  <si>
+    <t>7516</t>
+  </si>
+  <si>
+    <t>1685</t>
+  </si>
+  <si>
+    <t>7969</t>
+  </si>
+  <si>
+    <t>9246</t>
+  </si>
+  <si>
+    <t>2958</t>
+  </si>
+  <si>
+    <t>9595</t>
+  </si>
+  <si>
+    <t>8934</t>
+  </si>
+  <si>
+    <t>3120</t>
+  </si>
+  <si>
+    <t>2547</t>
+  </si>
+  <si>
+    <t>1698</t>
+  </si>
+  <si>
+    <t>1229</t>
+  </si>
+  <si>
+    <t>4021</t>
+  </si>
+  <si>
+    <t>8764</t>
+  </si>
+  <si>
+    <t>8247</t>
+  </si>
+  <si>
+    <t>9846</t>
+  </si>
+  <si>
+    <t>6451</t>
+  </si>
+  <si>
+    <t>3552</t>
+  </si>
+  <si>
+    <t>9245</t>
+  </si>
+  <si>
+    <t>1484</t>
+  </si>
+  <si>
+    <t>5739</t>
+  </si>
+  <si>
+    <t>1384</t>
+  </si>
+  <si>
+    <t>8518</t>
+  </si>
+  <si>
+    <t>5835</t>
+  </si>
+  <si>
+    <t>9010</t>
+  </si>
+  <si>
+    <t>4767</t>
+  </si>
+  <si>
+    <t>5024</t>
+  </si>
+  <si>
+    <t>1433</t>
+  </si>
+  <si>
+    <t>4394</t>
+  </si>
+  <si>
+    <t>9175</t>
+  </si>
+  <si>
+    <t>5948</t>
+  </si>
+  <si>
+    <t>6450</t>
+  </si>
+  <si>
+    <t>7890</t>
+  </si>
+  <si>
+    <t>1445</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>8891</t>
+  </si>
+  <si>
+    <t>8053</t>
+  </si>
+  <si>
+    <t>9752</t>
+  </si>
+  <si>
+    <t>1507</t>
+  </si>
+  <si>
+    <t>9915</t>
+  </si>
+  <si>
+    <t>3172</t>
+  </si>
+  <si>
+    <t>2181</t>
+  </si>
+  <si>
+    <t>1660</t>
+  </si>
+  <si>
+    <t>9051</t>
+  </si>
+  <si>
+    <t>5921</t>
+  </si>
+  <si>
+    <t>6842</t>
+  </si>
+  <si>
+    <t>1557</t>
+  </si>
+  <si>
+    <t>8326</t>
+  </si>
+  <si>
+    <t>6708</t>
+  </si>
+  <si>
+    <t>4395</t>
+  </si>
+  <si>
+    <t>2287</t>
+  </si>
+  <si>
+    <t>5153</t>
+  </si>
+  <si>
+    <t>2688</t>
+  </si>
+  <si>
+    <t>9013</t>
+  </si>
+  <si>
+    <t>1036</t>
+  </si>
+  <si>
+    <t>4625</t>
+  </si>
+  <si>
+    <t>2197</t>
+  </si>
+  <si>
+    <t>9078</t>
+  </si>
+  <si>
+    <t>3108</t>
+  </si>
+  <si>
+    <t>2099</t>
+  </si>
+  <si>
+    <t>8905</t>
+  </si>
+  <si>
+    <t>3521</t>
+  </si>
+  <si>
+    <t>2071</t>
+  </si>
+  <si>
+    <t>9383</t>
+  </si>
+  <si>
+    <t>3654</t>
+  </si>
+  <si>
+    <t>2764</t>
+  </si>
+  <si>
+    <t>5852</t>
+  </si>
+  <si>
+    <t>9906</t>
+  </si>
+  <si>
+    <t>1398</t>
+  </si>
+  <si>
+    <t>4435</t>
+  </si>
+  <si>
+    <t>1110</t>
+  </si>
+  <si>
+    <t>9424</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>6347</t>
+  </si>
+  <si>
+    <t>3262</t>
+  </si>
+  <si>
+    <t>2619</t>
+  </si>
+  <si>
+    <t>5211</t>
+  </si>
+  <si>
+    <t>1597</t>
+  </si>
+  <si>
+    <t>6554</t>
+  </si>
+  <si>
+    <t>7413</t>
+  </si>
+  <si>
+    <t>5037</t>
+  </si>
+  <si>
+    <t>8039</t>
+  </si>
+  <si>
+    <t>9210</t>
+  </si>
+  <si>
+    <t>7203</t>
+  </si>
+  <si>
+    <t>8201</t>
+  </si>
+  <si>
+    <t>9201</t>
+  </si>
+  <si>
+    <t>8475</t>
+  </si>
+  <si>
+    <t>3151</t>
+  </si>
+  <si>
+    <t>7879</t>
+  </si>
+  <si>
+    <t>6863</t>
+  </si>
+  <si>
+    <t>1440</t>
+  </si>
+  <si>
+    <t>3083</t>
+  </si>
+  <si>
+    <t>7875</t>
+  </si>
+  <si>
+    <t>3464</t>
+  </si>
+  <si>
+    <t>5333</t>
+  </si>
+  <si>
+    <t>7856</t>
+  </si>
+  <si>
+    <t>7750</t>
+  </si>
+  <si>
+    <t>1917</t>
+  </si>
+  <si>
+    <t>1630</t>
+  </si>
+  <si>
+    <t>7311</t>
+  </si>
+  <si>
+    <t>3011</t>
+  </si>
+  <si>
+    <t>5407</t>
+  </si>
+  <si>
+    <t>9197</t>
+  </si>
+  <si>
+    <t>2052</t>
+  </si>
+  <si>
+    <t>3164</t>
+  </si>
+  <si>
+    <t>2296</t>
+  </si>
+  <si>
+    <t>6832</t>
+  </si>
+  <si>
+    <t>7462</t>
+  </si>
+  <si>
+    <t>1191</t>
+  </si>
+  <si>
+    <t>2323</t>
+  </si>
+  <si>
+    <t>3195</t>
+  </si>
+  <si>
+    <t>9124</t>
+  </si>
+  <si>
+    <t>4857</t>
+  </si>
+  <si>
+    <t>9820</t>
+  </si>
+  <si>
+    <t>4369</t>
+  </si>
+  <si>
+    <t>4979</t>
+  </si>
+  <si>
+    <t>8956</t>
+  </si>
+  <si>
+    <t>5017</t>
+  </si>
+  <si>
+    <t>5032</t>
+  </si>
+  <si>
+    <t>8816</t>
+  </si>
+  <si>
+    <t>3081</t>
+  </si>
+  <si>
+    <t>8490</t>
+  </si>
+  <si>
+    <t>3175</t>
+  </si>
+  <si>
+    <t>3198</t>
+  </si>
+  <si>
+    <t>4583</t>
+  </si>
+  <si>
+    <t>4765</t>
+  </si>
+  <si>
+    <t>9039</t>
+  </si>
+  <si>
+    <t>6958</t>
+  </si>
+  <si>
+    <t>1223</t>
+  </si>
+  <si>
+    <t>8037</t>
+  </si>
+  <si>
+    <t>3658</t>
+  </si>
+  <si>
+    <t>3916</t>
+  </si>
+  <si>
+    <t>1464</t>
+  </si>
+  <si>
+    <t>5754</t>
+  </si>
+  <si>
+    <t>2117</t>
+  </si>
+  <si>
+    <t>2649</t>
+  </si>
+  <si>
+    <t>8603</t>
+  </si>
+  <si>
+    <t>3839</t>
+  </si>
+  <si>
+    <t>8857</t>
+  </si>
+  <si>
+    <t>1452</t>
+  </si>
+  <si>
+    <t>3875</t>
+  </si>
+  <si>
+    <t>5964</t>
+  </si>
+  <si>
+    <t>1950</t>
+  </si>
+  <si>
+    <t>7639</t>
+  </si>
+  <si>
+    <t>7064</t>
+  </si>
+  <si>
+    <t>8220</t>
+  </si>
+  <si>
+    <t>1051</t>
+  </si>
+  <si>
+    <t>7061</t>
+  </si>
+  <si>
+    <t>7140</t>
+  </si>
+  <si>
+    <t>1052</t>
+  </si>
+  <si>
+    <t>6926</t>
+  </si>
+  <si>
+    <t>6628</t>
+  </si>
+  <si>
+    <t>1075</t>
+  </si>
+  <si>
+    <t>8927</t>
+  </si>
+  <si>
+    <t>8648</t>
+  </si>
+  <si>
+    <t>6018</t>
+  </si>
+  <si>
+    <t>1767</t>
+  </si>
+  <si>
+    <t>7910</t>
+  </si>
+  <si>
+    <t>9965</t>
+  </si>
+  <si>
+    <t>7251</t>
+  </si>
+  <si>
+    <t>4948</t>
+  </si>
+  <si>
+    <t>4793</t>
+  </si>
+  <si>
+    <t>6452</t>
+  </si>
+  <si>
+    <t>3555</t>
+  </si>
+  <si>
+    <t>5976</t>
+  </si>
+  <si>
+    <t>8479</t>
+  </si>
+  <si>
+    <t>3183</t>
+  </si>
+  <si>
+    <t>1725</t>
+  </si>
+  <si>
+    <t>7489</t>
+  </si>
+  <si>
+    <t>4420</t>
+  </si>
+  <si>
+    <t>2129</t>
+  </si>
+  <si>
+    <t>3398</t>
+  </si>
+  <si>
+    <t>3389</t>
+  </si>
+  <si>
+    <t>3718</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>1394</t>
+  </si>
+  <si>
+    <t>1099</t>
+  </si>
+  <si>
+    <t>7881</t>
+  </si>
+  <si>
+    <t>8640</t>
+  </si>
+  <si>
+    <t>9900</t>
+  </si>
+  <si>
+    <t>5375</t>
+  </si>
+  <si>
+    <t>4177</t>
+  </si>
+  <si>
+    <t>9364</t>
+  </si>
+  <si>
+    <t>6466</t>
+  </si>
+  <si>
+    <t>1918</t>
+  </si>
+  <si>
+    <t>6981</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1890</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2479</t>
+  </si>
+  <si>
+    <t>2747</t>
+  </si>
+  <si>
+    <t>3005</t>
+  </si>
+  <si>
+    <t>7334</t>
+  </si>
+  <si>
+    <t>6256</t>
+  </si>
+  <si>
+    <t>9304</t>
+  </si>
+  <si>
+    <t>7295</t>
+  </si>
+  <si>
+    <t>5151</t>
+  </si>
+  <si>
+    <t>9808</t>
+  </si>
+  <si>
+    <t>4016</t>
+  </si>
+  <si>
+    <t>1132</t>
+  </si>
+  <si>
+    <t>6370</t>
+  </si>
+  <si>
+    <t>6620</t>
+  </si>
+  <si>
+    <t>9006</t>
+  </si>
+  <si>
+    <t>3119</t>
+  </si>
+  <si>
+    <t>6046</t>
+  </si>
+  <si>
+    <t>6095</t>
+  </si>
+  <si>
+    <t>1636</t>
+  </si>
+  <si>
+    <t>8482</t>
+  </si>
+  <si>
+    <t>8370</t>
+  </si>
+  <si>
+    <t>8999</t>
+  </si>
+  <si>
+    <t>2738</t>
+  </si>
+  <si>
+    <t>1251</t>
+  </si>
+  <si>
+    <t>4090</t>
+  </si>
+  <si>
+    <t>6519</t>
+  </si>
+  <si>
+    <t>7742</t>
+  </si>
+  <si>
+    <t>4655</t>
+  </si>
+  <si>
+    <t>7193</t>
+  </si>
+  <si>
+    <t>9381</t>
+  </si>
+  <si>
+    <t>6645</t>
+  </si>
+  <si>
+    <t>5355</t>
+  </si>
+  <si>
+    <t>7982</t>
+  </si>
+  <si>
+    <t>1926</t>
+  </si>
+  <si>
+    <t>8897</t>
+  </si>
+  <si>
+    <t>7291</t>
+  </si>
+  <si>
+    <t>4093</t>
+  </si>
+  <si>
+    <t>1483</t>
+  </si>
+  <si>
+    <t>9108</t>
+  </si>
+  <si>
+    <t>1594</t>
+  </si>
+  <si>
+    <t>9043</t>
+  </si>
+  <si>
+    <t>8629</t>
+  </si>
+  <si>
+    <t>5414</t>
+  </si>
+  <si>
+    <t>8700</t>
+  </si>
+  <si>
+    <t>6836</t>
+  </si>
+  <si>
+    <t>5767</t>
+  </si>
+  <si>
+    <t>8959</t>
+  </si>
+  <si>
+    <t>4412</t>
+  </si>
+  <si>
+    <t>7688</t>
+  </si>
+  <si>
+    <t>2665</t>
+  </si>
+  <si>
+    <t>7886</t>
+  </si>
+  <si>
+    <t>7792</t>
+  </si>
+  <si>
+    <t>4839</t>
+  </si>
+  <si>
+    <t>5271</t>
+  </si>
+  <si>
+    <t>1312</t>
+  </si>
+  <si>
+    <t>7851</t>
+  </si>
+  <si>
+    <t>8218</t>
+  </si>
+  <si>
+    <t>1375</t>
+  </si>
+  <si>
+    <t>3800</t>
+  </si>
+  <si>
+    <t>9362</t>
+  </si>
+  <si>
+    <t>8547</t>
+  </si>
+  <si>
+    <t>1328</t>
+  </si>
+  <si>
+    <t>4641</t>
+  </si>
+  <si>
+    <t>2114</t>
+  </si>
+  <si>
+    <t>5561</t>
+  </si>
+  <si>
+    <t>2624</t>
+  </si>
+  <si>
+    <t>8061</t>
+  </si>
+  <si>
+    <t>7724</t>
+  </si>
+  <si>
+    <t>6388</t>
+  </si>
+  <si>
+    <t>6494</t>
+  </si>
+  <si>
+    <t>2804</t>
+  </si>
+  <si>
+    <t>3339</t>
+  </si>
+  <si>
+    <t>3873</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>9054</t>
+  </si>
+  <si>
+    <t>6961</t>
+  </si>
+  <si>
+    <t>3603</t>
+  </si>
+  <si>
+    <t>3862</t>
+  </si>
+  <si>
+    <t>8262</t>
+  </si>
+  <si>
+    <t>3716</t>
+  </si>
+  <si>
+    <t>3615</t>
+  </si>
+  <si>
+    <t>3278</t>
+  </si>
+  <si>
+    <t>6297</t>
+  </si>
+  <si>
+    <t>6386</t>
+  </si>
+  <si>
+    <t>2904</t>
+  </si>
+  <si>
+    <t>1204</t>
+  </si>
+  <si>
+    <t>4243</t>
+  </si>
+  <si>
+    <t>3876</t>
+  </si>
+  <si>
+    <t>3208</t>
+  </si>
+  <si>
+    <t>3514</t>
+  </si>
+  <si>
+    <t>7138</t>
+  </si>
+  <si>
+    <t>7019</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>5736</t>
+  </si>
+  <si>
+    <t>9909</t>
+  </si>
+  <si>
+    <t>7230</t>
+  </si>
+  <si>
+    <t>9196</t>
+  </si>
+  <si>
+    <t>2158</t>
+  </si>
+  <si>
+    <t>7557</t>
+  </si>
+  <si>
+    <t>4429</t>
+  </si>
+  <si>
+    <t>4428</t>
+  </si>
+  <si>
+    <t>1280</t>
+  </si>
+  <si>
+    <t>5810</t>
+  </si>
+  <si>
+    <t>4486</t>
+  </si>
+  <si>
+    <t>9843</t>
+  </si>
+  <si>
+    <t>3048</t>
+  </si>
+  <si>
+    <t>4909</t>
+  </si>
+  <si>
+    <t>8025</t>
+  </si>
+  <si>
+    <t>4074</t>
+  </si>
+  <si>
+    <t>9649</t>
+  </si>
+  <si>
+    <t>8225</t>
+  </si>
+  <si>
+    <t>8861</t>
+  </si>
+  <si>
+    <t>5003</t>
+  </si>
+  <si>
+    <t>6631</t>
+  </si>
+  <si>
+    <t>7392</t>
+  </si>
+  <si>
+    <t>4867</t>
+  </si>
+  <si>
+    <t>6888</t>
+  </si>
+  <si>
+    <t>2140</t>
+  </si>
+  <si>
+    <t>9294</t>
+  </si>
+  <si>
+    <t>2990</t>
+  </si>
+  <si>
+    <t>9849</t>
+  </si>
+  <si>
+    <t>8887</t>
+  </si>
+  <si>
+    <t>1577</t>
+  </si>
+  <si>
+    <t>7389</t>
+  </si>
+  <si>
+    <t>9796</t>
+  </si>
+  <si>
+    <t>2448</t>
+  </si>
+  <si>
+    <t>8931</t>
+  </si>
+  <si>
+    <t>4713</t>
+  </si>
+  <si>
+    <t>6950</t>
+  </si>
+  <si>
+    <t>5896</t>
+  </si>
+  <si>
+    <t>5289</t>
+  </si>
+  <si>
+    <t>8043</t>
+  </si>
+  <si>
+    <t>9734</t>
+  </si>
+  <si>
+    <t>8779</t>
+  </si>
+  <si>
+    <t>9439</t>
+  </si>
+  <si>
+    <t>9635</t>
+  </si>
+  <si>
+    <t>5856</t>
+  </si>
+  <si>
+    <t>2668</t>
+  </si>
+  <si>
+    <t>9441</t>
+  </si>
+  <si>
+    <t>6162</t>
+  </si>
+  <si>
+    <t>2833</t>
+  </si>
+  <si>
+    <t>1028</t>
+  </si>
+  <si>
+    <t>6598</t>
+  </si>
+  <si>
+    <t>5670</t>
+  </si>
+  <si>
+    <t>6834</t>
+  </si>
+  <si>
+    <t>1531</t>
+  </si>
+  <si>
+    <t>7821</t>
+  </si>
+  <si>
+    <t>7539</t>
+  </si>
+  <si>
+    <t>6234</t>
+  </si>
+  <si>
+    <t>7245</t>
+  </si>
+  <si>
+    <t>9596</t>
+  </si>
+  <si>
+    <t>8014</t>
+  </si>
+  <si>
+    <t>4874</t>
+  </si>
+  <si>
+    <t>7455</t>
+  </si>
+  <si>
+    <t>9897</t>
+  </si>
+  <si>
+    <t>8331</t>
+  </si>
+  <si>
+    <t>9889</t>
+  </si>
+  <si>
+    <t>4806</t>
+  </si>
+  <si>
+    <t>5193</t>
+  </si>
+  <si>
+    <t>7238</t>
+  </si>
+  <si>
+    <t>7128</t>
+  </si>
+  <si>
+    <t>9430</t>
+  </si>
+  <si>
+    <t>5784</t>
   </si>
 </sst>
 </file>
@@ -54,7 +1470,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,7 +1510,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -430,19 +1846,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B558B5-DE17-4A1A-A652-249156ED66A5}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C488"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D3"/>
+    <sheetView tabSelected="1" topLeftCell="A481" workbookViewId="0">
+      <selection activeCell="A489" sqref="A489:B501"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
     <col min="2" max="2" width="14" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,6 +1867,5363 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>9822</v>
+      </c>
+      <c r="C2">
+        <v>3477</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>6527</v>
+      </c>
+      <c r="C3">
+        <v>6974</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1141</v>
+      </c>
+      <c r="C4">
+        <v>4573</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3898</v>
+      </c>
+      <c r="C5">
+        <v>5163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1012</v>
+      </c>
+      <c r="C6">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1293</v>
+      </c>
+      <c r="C7">
+        <v>5082</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>6977</v>
+      </c>
+      <c r="C8">
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>8205</v>
+      </c>
+      <c r="C9">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2">
+        <v>4227</v>
+      </c>
+      <c r="C10">
+        <v>8019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2">
+        <v>9832</v>
+      </c>
+      <c r="C11">
+        <v>9397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3931</v>
+      </c>
+      <c r="C12">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2">
+        <v>4881</v>
+      </c>
+      <c r="C13">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2">
+        <v>5816</v>
+      </c>
+      <c r="C14">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2896</v>
+      </c>
+      <c r="C15">
+        <v>7139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2148</v>
+      </c>
+      <c r="C16">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2">
+        <v>9612</v>
+      </c>
+      <c r="C17">
+        <v>5855</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2612</v>
+      </c>
+      <c r="C18">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1311</v>
+      </c>
+      <c r="C19">
+        <v>8988</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1243</v>
+      </c>
+      <c r="C20">
+        <v>4634</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="2">
+        <v>9520</v>
+      </c>
+      <c r="C21">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2782</v>
+      </c>
+      <c r="C22">
+        <v>5561</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2644</v>
+      </c>
+      <c r="C23">
+        <v>9577</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="2">
+        <v>6093</v>
+      </c>
+      <c r="C24">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="2">
+        <v>5744</v>
+      </c>
+      <c r="C25">
+        <v>5249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1061</v>
+      </c>
+      <c r="C26">
+        <v>5148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="2">
+        <v>6324</v>
+      </c>
+      <c r="C27">
+        <v>8011</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="2">
+        <v>5890</v>
+      </c>
+      <c r="C28">
+        <v>5327</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="2">
+        <v>9382</v>
+      </c>
+      <c r="C29">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="2">
+        <v>5746</v>
+      </c>
+      <c r="C30">
+        <v>4326</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2">
+        <v>8489</v>
+      </c>
+      <c r="C31">
+        <v>8063</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="2">
+        <v>2923</v>
+      </c>
+      <c r="C32">
+        <v>8066</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="2">
+        <v>3198</v>
+      </c>
+      <c r="C33">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="2">
+        <v>3977</v>
+      </c>
+      <c r="C34">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="2">
+        <v>3876</v>
+      </c>
+      <c r="C35">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="2">
+        <v>7826</v>
+      </c>
+      <c r="C36">
+        <v>6728</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="2">
+        <v>8360</v>
+      </c>
+      <c r="C37">
+        <v>3783</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="2">
+        <v>9974</v>
+      </c>
+      <c r="C38">
+        <v>4340</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="2">
+        <v>4310</v>
+      </c>
+      <c r="C39">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="2">
+        <v>2197</v>
+      </c>
+      <c r="C40">
+        <v>8057</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="2">
+        <v>7930</v>
+      </c>
+      <c r="C41">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="2">
+        <v>3646</v>
+      </c>
+      <c r="C42">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="2">
+        <v>2303</v>
+      </c>
+      <c r="C43">
+        <v>6746</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="2">
+        <v>3892</v>
+      </c>
+      <c r="C44">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="2">
+        <v>5750</v>
+      </c>
+      <c r="C45">
+        <v>8899</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="2">
+        <v>2013</v>
+      </c>
+      <c r="C46">
+        <v>5991</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="2">
+        <v>8719</v>
+      </c>
+      <c r="C47">
+        <v>7379</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="2">
+        <v>8312</v>
+      </c>
+      <c r="C48">
+        <v>8117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="2">
+        <v>6240</v>
+      </c>
+      <c r="C49">
+        <v>8244</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="2">
+        <v>6557</v>
+      </c>
+      <c r="C50">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="2">
+        <v>4755</v>
+      </c>
+      <c r="C51">
+        <v>5142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="2">
+        <v>3005</v>
+      </c>
+      <c r="C52">
+        <v>7399</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="2">
+        <v>3778</v>
+      </c>
+      <c r="C53">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="2">
+        <v>2204</v>
+      </c>
+      <c r="C54">
+        <v>7537</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="2">
+        <v>4858</v>
+      </c>
+      <c r="C55">
+        <v>5759</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="2">
+        <v>6003</v>
+      </c>
+      <c r="C56">
+        <v>4551</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="2">
+        <v>1676</v>
+      </c>
+      <c r="C57">
+        <v>6331</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="2">
+        <v>4169</v>
+      </c>
+      <c r="C58">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="2">
+        <v>4344</v>
+      </c>
+      <c r="C59">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="2">
+        <v>1836</v>
+      </c>
+      <c r="C60">
+        <v>6212</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="2">
+        <v>4191</v>
+      </c>
+      <c r="C61">
+        <v>5255</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="2">
+        <v>8385</v>
+      </c>
+      <c r="C62">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="2">
+        <v>9013</v>
+      </c>
+      <c r="C63">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="2">
+        <v>3737</v>
+      </c>
+      <c r="C64">
+        <v>3379</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="2">
+        <v>8347</v>
+      </c>
+      <c r="C65">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="2">
+        <v>3043</v>
+      </c>
+      <c r="C66">
+        <v>3559</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="2">
+        <v>3469</v>
+      </c>
+      <c r="C67">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="2">
+        <v>6166</v>
+      </c>
+      <c r="C68">
+        <v>7816</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="2">
+        <v>5095</v>
+      </c>
+      <c r="C69">
+        <v>7059</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="2">
+        <v>4461</v>
+      </c>
+      <c r="C70">
+        <v>5363</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" s="2">
+        <v>7828</v>
+      </c>
+      <c r="C71">
+        <v>5935</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="2">
+        <v>8728</v>
+      </c>
+      <c r="C72">
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="2">
+        <v>5584</v>
+      </c>
+      <c r="C73">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="2">
+        <v>5119</v>
+      </c>
+      <c r="C74">
+        <v>9452</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="2">
+        <v>8875</v>
+      </c>
+      <c r="C75">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="2">
+        <v>2593</v>
+      </c>
+      <c r="C76">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" s="2">
+        <v>9339</v>
+      </c>
+      <c r="C77">
+        <v>7268</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" s="2">
+        <v>1708</v>
+      </c>
+      <c r="C78">
+        <v>8758</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" s="2">
+        <v>6851</v>
+      </c>
+      <c r="C79">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="2">
+        <v>4802</v>
+      </c>
+      <c r="C80">
+        <v>7316</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" s="2">
+        <v>4771</v>
+      </c>
+      <c r="C81">
+        <v>3928</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" s="2">
+        <v>3766</v>
+      </c>
+      <c r="C82">
+        <v>6433</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" s="2">
+        <v>2959</v>
+      </c>
+      <c r="C83">
+        <v>3781</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" s="2">
+        <v>4992</v>
+      </c>
+      <c r="C84">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" s="2">
+        <v>7024</v>
+      </c>
+      <c r="C85">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" s="2">
+        <v>2252</v>
+      </c>
+      <c r="C86">
+        <v>8535</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" s="2">
+        <v>8396</v>
+      </c>
+      <c r="C87">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" s="2">
+        <v>4179</v>
+      </c>
+      <c r="C88">
+        <v>6471</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" s="2">
+        <v>2345</v>
+      </c>
+      <c r="C89">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" s="2">
+        <v>7712</v>
+      </c>
+      <c r="C90">
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" s="2">
+        <v>2094</v>
+      </c>
+      <c r="C91">
+        <v>9628</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" s="2">
+        <v>1415</v>
+      </c>
+      <c r="C92">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" s="2">
+        <v>7732</v>
+      </c>
+      <c r="C93">
+        <v>6270</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" s="2">
+        <v>6525</v>
+      </c>
+      <c r="C94">
+        <v>3557</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" s="2">
+        <v>4299</v>
+      </c>
+      <c r="C95">
+        <v>8824</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" s="2">
+        <v>9391</v>
+      </c>
+      <c r="C96">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" s="2">
+        <v>8243</v>
+      </c>
+      <c r="C97">
+        <v>7283</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" s="2">
+        <v>5235</v>
+      </c>
+      <c r="C98">
+        <v>6457</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" s="2">
+        <v>3141</v>
+      </c>
+      <c r="C99">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" s="2">
+        <v>5286</v>
+      </c>
+      <c r="C100">
+        <v>7721</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" s="2">
+        <v>8452</v>
+      </c>
+      <c r="C101">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102" s="2">
+        <v>8321</v>
+      </c>
+      <c r="C102">
+        <v>7990</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103" s="2">
+        <v>9168</v>
+      </c>
+      <c r="C103">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104" s="2">
+        <v>3408</v>
+      </c>
+      <c r="C104">
+        <v>5908</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" s="2">
+        <v>7669</v>
+      </c>
+      <c r="C105">
+        <v>8304</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" s="2">
+        <v>9814</v>
+      </c>
+      <c r="C106">
+        <v>3646</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107" s="2">
+        <v>9248</v>
+      </c>
+      <c r="C107">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" s="2">
+        <v>2144</v>
+      </c>
+      <c r="C108">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" s="2">
+        <v>7715</v>
+      </c>
+      <c r="C109">
+        <v>6966</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" s="2">
+        <v>8753</v>
+      </c>
+      <c r="C110">
+        <v>7220</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111" s="2">
+        <v>3888</v>
+      </c>
+      <c r="C111">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112" s="2">
+        <v>9688</v>
+      </c>
+      <c r="C112">
+        <v>9504</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" s="2">
+        <v>9843</v>
+      </c>
+      <c r="C113">
+        <v>5964</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" s="2">
+        <v>9562</v>
+      </c>
+      <c r="C114">
+        <v>6431</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115" s="2">
+        <v>5141</v>
+      </c>
+      <c r="C115">
+        <v>6617</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116" s="2">
+        <v>1777</v>
+      </c>
+      <c r="C116">
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" s="2">
+        <v>6754</v>
+      </c>
+      <c r="C117">
+        <v>5968</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" s="2">
+        <v>9936</v>
+      </c>
+      <c r="C118">
+        <v>7469</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" s="2">
+        <v>1234</v>
+      </c>
+      <c r="C119">
+        <v>9591</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120" s="2">
+        <v>8876</v>
+      </c>
+      <c r="C120">
+        <v>5866</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121" s="2">
+        <v>4387</v>
+      </c>
+      <c r="C121">
+        <v>5017</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122" s="2">
+        <v>2745</v>
+      </c>
+      <c r="C122">
+        <v>6609</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123" s="2">
+        <v>3989</v>
+      </c>
+      <c r="C123">
+        <v>6520</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124" s="2">
+        <v>5896</v>
+      </c>
+      <c r="C124">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B125" s="2">
+        <v>6003</v>
+      </c>
+      <c r="C125">
+        <v>3861</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126" s="2">
+        <v>2687</v>
+      </c>
+      <c r="C126">
+        <v>4811</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127" s="2">
+        <v>6119</v>
+      </c>
+      <c r="C127">
+        <v>5203</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128" s="2">
+        <v>9576</v>
+      </c>
+      <c r="C128">
+        <v>7707</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B129" s="2">
+        <v>5741</v>
+      </c>
+      <c r="C129">
+        <v>2889</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130" s="2">
+        <v>5296</v>
+      </c>
+      <c r="C130">
+        <v>8998</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131" s="2">
+        <v>6206</v>
+      </c>
+      <c r="C131">
+        <v>9059</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B132" s="2">
+        <v>1673</v>
+      </c>
+      <c r="C132">
+        <v>3532</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B133" s="2">
+        <v>6535</v>
+      </c>
+      <c r="C133">
+        <v>8492</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B134" s="2">
+        <v>4554</v>
+      </c>
+      <c r="C134">
+        <v>2894</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B135" s="2">
+        <v>9676</v>
+      </c>
+      <c r="C135">
+        <v>4836</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B136" s="2">
+        <v>8693</v>
+      </c>
+      <c r="C136">
+        <v>9337</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B137" s="2">
+        <v>5295</v>
+      </c>
+      <c r="C137">
+        <v>9043</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138" s="2">
+        <v>4931</v>
+      </c>
+      <c r="C138">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139" s="2">
+        <v>3183</v>
+      </c>
+      <c r="C139">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B140" s="2">
+        <v>9883</v>
+      </c>
+      <c r="C140">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B141" s="2">
+        <v>7297</v>
+      </c>
+      <c r="C141">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B142" s="2">
+        <v>1240</v>
+      </c>
+      <c r="C142">
+        <v>5473</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B143" s="2">
+        <v>6324</v>
+      </c>
+      <c r="C143">
+        <v>9312</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B144" s="2">
+        <v>4190</v>
+      </c>
+      <c r="C144">
+        <v>8165</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B145" s="2">
+        <v>3262</v>
+      </c>
+      <c r="C145">
+        <v>7938</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B146" s="2">
+        <v>1156</v>
+      </c>
+      <c r="C146">
+        <v>9816</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B147" s="2">
+        <v>6898</v>
+      </c>
+      <c r="C147">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B148" s="2">
+        <v>2826</v>
+      </c>
+      <c r="C148">
+        <v>6436</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B149" s="2">
+        <v>8904</v>
+      </c>
+      <c r="C149">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B150" s="2">
+        <v>4950</v>
+      </c>
+      <c r="C150">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B151" s="2">
+        <v>8880</v>
+      </c>
+      <c r="C151">
+        <v>7777</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B152" s="2">
+        <v>9522</v>
+      </c>
+      <c r="C152">
+        <v>8624</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B153" s="2">
+        <v>7083</v>
+      </c>
+      <c r="C153">
+        <v>9482</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B154" s="2">
+        <v>2146</v>
+      </c>
+      <c r="C154">
+        <v>8203</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B155" s="2">
+        <v>4923</v>
+      </c>
+      <c r="C155">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B156" s="2">
+        <v>7631</v>
+      </c>
+      <c r="C156">
+        <v>9851</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B157" s="2">
+        <v>6269</v>
+      </c>
+      <c r="C157">
+        <v>8874</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B158" s="2">
+        <v>9432</v>
+      </c>
+      <c r="C158">
+        <v>7736</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B159" s="2">
+        <v>2328</v>
+      </c>
+      <c r="C159">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B160" s="2">
+        <v>3944</v>
+      </c>
+      <c r="C160">
+        <v>5782</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B161" s="2">
+        <v>4583</v>
+      </c>
+      <c r="C161">
+        <v>9913</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B162" s="2">
+        <v>8141</v>
+      </c>
+      <c r="C162">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B163" s="2">
+        <v>9130</v>
+      </c>
+      <c r="C163">
+        <v>9217</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B164" s="2">
+        <v>8688</v>
+      </c>
+      <c r="C164">
+        <v>5505</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B165" s="2">
+        <v>1950</v>
+      </c>
+      <c r="C165">
+        <v>7699</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B166" s="2">
+        <v>8415</v>
+      </c>
+      <c r="C166">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B167" s="2">
+        <v>8814</v>
+      </c>
+      <c r="C167">
+        <v>6789</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B168" s="2">
+        <v>9574</v>
+      </c>
+      <c r="C168">
+        <v>6058</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B169" s="2">
+        <v>8883</v>
+      </c>
+      <c r="C169">
+        <v>7817</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B170" s="2">
+        <v>8484</v>
+      </c>
+      <c r="C170">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B171" s="2">
+        <v>5240</v>
+      </c>
+      <c r="C171">
+        <v>6105</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B172" s="2">
+        <v>7066</v>
+      </c>
+      <c r="C172">
+        <v>8456</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B173" s="2">
+        <v>6430</v>
+      </c>
+      <c r="C173">
+        <v>7806</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B174" s="2">
+        <v>1811</v>
+      </c>
+      <c r="C174">
+        <v>8508</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B175" s="2">
+        <v>7766</v>
+      </c>
+      <c r="C175">
+        <v>9239</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B176" s="2">
+        <v>5097</v>
+      </c>
+      <c r="C176">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B177" s="2">
+        <v>9448</v>
+      </c>
+      <c r="C177">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B178" s="2">
+        <v>1656</v>
+      </c>
+      <c r="C178">
+        <v>9953</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B179" s="2">
+        <v>5071</v>
+      </c>
+      <c r="C179">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B180" s="2">
+        <v>1876</v>
+      </c>
+      <c r="C180">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B181" s="2">
+        <v>3404</v>
+      </c>
+      <c r="C181">
+        <v>7465</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B182" s="2">
+        <v>9071</v>
+      </c>
+      <c r="C182">
+        <v>9559</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B183" s="2">
+        <v>8439</v>
+      </c>
+      <c r="C183">
+        <v>8283</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B184" s="2">
+        <v>4393</v>
+      </c>
+      <c r="C184">
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B185" s="2">
+        <v>3701</v>
+      </c>
+      <c r="C185">
+        <v>7281</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B186" s="2">
+        <v>7488</v>
+      </c>
+      <c r="C186">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B187" s="2">
+        <v>3856</v>
+      </c>
+      <c r="C187">
+        <v>9189</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B188" s="2">
+        <v>1258</v>
+      </c>
+      <c r="C188">
+        <v>9612</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B189" s="2">
+        <v>1912</v>
+      </c>
+      <c r="C189">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B190" s="2">
+        <v>8797</v>
+      </c>
+      <c r="C190">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B191" s="2">
+        <v>7267</v>
+      </c>
+      <c r="C191">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B192" s="2">
+        <v>4619</v>
+      </c>
+      <c r="C192">
+        <v>5244</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B193" s="2">
+        <v>8562</v>
+      </c>
+      <c r="C193">
+        <v>9890</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B194" s="2">
+        <v>1658</v>
+      </c>
+      <c r="C194">
+        <v>3908</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B195" s="2">
+        <v>7233</v>
+      </c>
+      <c r="C195">
+        <v>8961</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B196" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C196">
+        <v>4058</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B197" s="2">
+        <v>8985</v>
+      </c>
+      <c r="C197">
+        <v>3839</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B198" s="2">
+        <v>5615</v>
+      </c>
+      <c r="C198">
+        <v>7137</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B199" s="2">
+        <v>6127</v>
+      </c>
+      <c r="C199">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B200" s="2">
+        <v>8957</v>
+      </c>
+      <c r="C200">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B201" s="2">
+        <v>1610</v>
+      </c>
+      <c r="C201">
+        <v>3855</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B202" s="2">
+        <v>9839</v>
+      </c>
+      <c r="C202">
+        <v>4610</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B203" s="2">
+        <v>1485</v>
+      </c>
+      <c r="C203">
+        <v>9981</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B204" s="2">
+        <v>6844</v>
+      </c>
+      <c r="C204">
+        <v>9147</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B205" s="2">
+        <v>1319</v>
+      </c>
+      <c r="C205">
+        <v>4704</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B206" s="2">
+        <v>4796</v>
+      </c>
+      <c r="C206">
+        <v>9404</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B207" s="2">
+        <v>5345</v>
+      </c>
+      <c r="C207">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B208" s="2">
+        <v>5786</v>
+      </c>
+      <c r="C208">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B209" s="2">
+        <v>9533</v>
+      </c>
+      <c r="C209">
+        <v>5936</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B210" s="2">
+        <v>4872</v>
+      </c>
+      <c r="C210">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B211" s="2">
+        <v>3005</v>
+      </c>
+      <c r="C211">
+        <v>3595</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B212" s="2">
+        <v>4013</v>
+      </c>
+      <c r="C212">
+        <v>6813</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B213" s="2">
+        <v>9004</v>
+      </c>
+      <c r="C213">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B214" s="2">
+        <v>9804</v>
+      </c>
+      <c r="C214">
+        <v>8534</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B215" s="2">
+        <v>8784</v>
+      </c>
+      <c r="C215">
+        <v>6524</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B216" s="2">
+        <v>6743</v>
+      </c>
+      <c r="C216">
+        <v>4951</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B217" s="2">
+        <v>9421</v>
+      </c>
+      <c r="C217">
+        <v>9230</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B218" s="2">
+        <v>7456</v>
+      </c>
+      <c r="C218">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B219" s="2">
+        <v>4572</v>
+      </c>
+      <c r="C219">
+        <v>5670</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B220" s="2">
+        <v>3328</v>
+      </c>
+      <c r="C220">
+        <v>3396</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B221" s="2">
+        <v>8048</v>
+      </c>
+      <c r="C221">
+        <v>4657</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B222" s="2">
+        <v>9283</v>
+      </c>
+      <c r="C222">
+        <v>5828</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B223" s="2">
+        <v>2917</v>
+      </c>
+      <c r="C223">
+        <v>3976</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B224" s="2">
+        <v>6691</v>
+      </c>
+      <c r="C224">
+        <v>6812</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B225" s="2">
+        <v>4412</v>
+      </c>
+      <c r="C225">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B226" s="2">
+        <v>5013</v>
+      </c>
+      <c r="C226">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B227" s="2">
+        <v>8964</v>
+      </c>
+      <c r="C227">
+        <v>8295</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B228" s="2">
+        <v>8185</v>
+      </c>
+      <c r="C228">
+        <v>9263</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B229" s="2">
+        <v>7087</v>
+      </c>
+      <c r="C229">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B230" s="2">
+        <v>7506</v>
+      </c>
+      <c r="C230">
+        <v>9205</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B231" s="2">
+        <v>3214</v>
+      </c>
+      <c r="C231">
+        <v>8602</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B232" s="2">
+        <v>4388</v>
+      </c>
+      <c r="C232">
+        <v>4499</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B233" s="2">
+        <v>9980</v>
+      </c>
+      <c r="C233">
+        <v>8031</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B234" s="2">
+        <v>8995</v>
+      </c>
+      <c r="C234">
+        <v>6174</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B235" s="2">
+        <v>8800</v>
+      </c>
+      <c r="C235">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B236" s="2">
+        <v>7876</v>
+      </c>
+      <c r="C236">
+        <v>7175</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B237" s="2">
+        <v>2390</v>
+      </c>
+      <c r="C237">
+        <v>9724</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B238" s="2">
+        <v>6114</v>
+      </c>
+      <c r="C238">
+        <v>5220</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B239" s="2">
+        <v>1483</v>
+      </c>
+      <c r="C239">
+        <v>6238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B240" s="2">
+        <v>1301</v>
+      </c>
+      <c r="C240">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B241" s="2">
+        <v>9446</v>
+      </c>
+      <c r="C241">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B242" s="2">
+        <v>6707</v>
+      </c>
+      <c r="C242">
+        <v>7667</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B243" s="2">
+        <v>2438</v>
+      </c>
+      <c r="C243">
+        <v>8786</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B244" s="2">
+        <v>1935</v>
+      </c>
+      <c r="C244">
+        <v>7610</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B245" s="2">
+        <v>7876</v>
+      </c>
+      <c r="C245">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B246" s="2">
+        <v>9510</v>
+      </c>
+      <c r="C246">
+        <v>3476</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B247" s="2">
+        <v>5575</v>
+      </c>
+      <c r="C247">
+        <v>6641</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B248" s="2">
+        <v>5467</v>
+      </c>
+      <c r="C248">
+        <v>9979</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B249" s="2">
+        <v>2028</v>
+      </c>
+      <c r="C249">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B250" s="2">
+        <v>6879</v>
+      </c>
+      <c r="C250">
+        <v>5840</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B251" s="2">
+        <v>1565</v>
+      </c>
+      <c r="C251">
+        <v>6908</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B252" s="2">
+        <v>6028</v>
+      </c>
+      <c r="C252">
+        <v>3463</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B253" s="2">
+        <v>9567</v>
+      </c>
+      <c r="C253">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B254" s="2">
+        <v>9831</v>
+      </c>
+      <c r="C254">
+        <v>4975</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B255" s="2">
+        <v>7756</v>
+      </c>
+      <c r="C255">
+        <v>7861</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B256" s="2">
+        <v>9229</v>
+      </c>
+      <c r="C256">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B257" s="2">
+        <v>7941</v>
+      </c>
+      <c r="C257">
+        <v>5961</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B258" s="2">
+        <v>9631</v>
+      </c>
+      <c r="C258">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B259" s="2">
+        <v>8138</v>
+      </c>
+      <c r="C259">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B260" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C260">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B261" s="2">
+        <v>5783</v>
+      </c>
+      <c r="C261">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B262" s="2">
+        <v>4941</v>
+      </c>
+      <c r="C262">
+        <v>4355</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B263" s="2">
+        <v>1910</v>
+      </c>
+      <c r="C263">
+        <v>4572</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B264" s="2">
+        <v>2935</v>
+      </c>
+      <c r="C264">
+        <v>7408</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B265" s="2">
+        <v>8416</v>
+      </c>
+      <c r="C265">
+        <v>9744</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B266" s="2">
+        <v>2247</v>
+      </c>
+      <c r="C266">
+        <v>7739</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B267" s="2">
+        <v>4613</v>
+      </c>
+      <c r="C267">
+        <v>4443</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B268" s="2">
+        <v>3556</v>
+      </c>
+      <c r="C268">
+        <v>7307</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B269" s="2">
+        <v>9770</v>
+      </c>
+      <c r="C269">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B270" s="2">
+        <v>3460</v>
+      </c>
+      <c r="C270">
+        <v>3202</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B271" s="2">
+        <v>2321</v>
+      </c>
+      <c r="C271">
+        <v>8715</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B272" s="2">
+        <v>5868</v>
+      </c>
+      <c r="C272">
+        <v>8153</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B273" s="2">
+        <v>4989</v>
+      </c>
+      <c r="C273">
+        <v>5158</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B274" s="2">
+        <v>2997</v>
+      </c>
+      <c r="C274">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B275" s="2">
+        <v>6931</v>
+      </c>
+      <c r="C275">
+        <v>9817</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B276" s="2">
+        <v>2724</v>
+      </c>
+      <c r="C276">
+        <v>5951</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B277" s="2">
+        <v>1662</v>
+      </c>
+      <c r="C277">
+        <v>4766</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B278" s="2">
+        <v>2479</v>
+      </c>
+      <c r="C278">
+        <v>9810</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B279" s="2">
+        <v>4254</v>
+      </c>
+      <c r="C279">
+        <v>6487</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B280" s="2">
+        <v>9111</v>
+      </c>
+      <c r="C280">
+        <v>9107</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B281" s="2">
+        <v>2462</v>
+      </c>
+      <c r="C281">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B282" s="2">
+        <v>6574</v>
+      </c>
+      <c r="C282">
+        <v>7389</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B283" s="2">
+        <v>9275</v>
+      </c>
+      <c r="C283">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B284" s="2">
+        <v>5589</v>
+      </c>
+      <c r="C284">
+        <v>9017</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B285" s="2">
+        <v>6746</v>
+      </c>
+      <c r="C285">
+        <v>8261</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B286" s="2">
+        <v>7762</v>
+      </c>
+      <c r="C286">
+        <v>9765</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B287" s="2">
+        <v>5445</v>
+      </c>
+      <c r="C287">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B288" s="2">
+        <v>3950</v>
+      </c>
+      <c r="C288">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B289" s="2">
+        <v>9562</v>
+      </c>
+      <c r="C289">
+        <v>5698</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B290" s="2">
+        <v>2320</v>
+      </c>
+      <c r="C290">
+        <v>4126</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B291" s="2">
+        <v>3126</v>
+      </c>
+      <c r="C291">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B292" s="2">
+        <v>4036</v>
+      </c>
+      <c r="C292">
+        <v>3716</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B293" s="2">
+        <v>9048</v>
+      </c>
+      <c r="C293">
+        <v>8290</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B294" s="2">
+        <v>6112</v>
+      </c>
+      <c r="C294">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B295" s="2">
+        <v>3949</v>
+      </c>
+      <c r="C295">
+        <v>5793</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B296" s="2">
+        <v>2573</v>
+      </c>
+      <c r="C296">
+        <v>1766</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B297" s="2">
+        <v>8482</v>
+      </c>
+      <c r="C297">
+        <v>8007</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B298" s="2">
+        <v>1144</v>
+      </c>
+      <c r="C298">
+        <v>4645</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B299" s="2">
+        <v>9955</v>
+      </c>
+      <c r="C299">
+        <v>8617</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B300" s="2">
+        <v>6667</v>
+      </c>
+      <c r="C300">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B301" s="2">
+        <v>5579</v>
+      </c>
+      <c r="C301">
+        <v>5567</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B302" s="2">
+        <v>3606</v>
+      </c>
+      <c r="C302">
+        <v>8868</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B303" s="2">
+        <v>4080</v>
+      </c>
+      <c r="C303">
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B304" s="2">
+        <v>6465</v>
+      </c>
+      <c r="C304">
+        <v>7423</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B305" s="2">
+        <v>3008</v>
+      </c>
+      <c r="C305">
+        <v>8890</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B306" s="2">
+        <v>9240</v>
+      </c>
+      <c r="C306">
+        <v>4091</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B307" s="2">
+        <v>9542</v>
+      </c>
+      <c r="C307">
+        <v>5349</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B308" s="2">
+        <v>1933</v>
+      </c>
+      <c r="C308">
+        <v>4709</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B309" s="2">
+        <v>6137</v>
+      </c>
+      <c r="C309">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B310" s="2">
+        <v>1944</v>
+      </c>
+      <c r="C310">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B311" s="2">
+        <v>1596</v>
+      </c>
+      <c r="C311">
+        <v>5819</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B312" s="2">
+        <v>9649</v>
+      </c>
+      <c r="C312">
+        <v>8528</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B313" s="2">
+        <v>3600</v>
+      </c>
+      <c r="C313">
+        <v>5014</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B314" s="2">
+        <v>4244</v>
+      </c>
+      <c r="C314">
+        <v>5278</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B315" s="2">
+        <v>8458</v>
+      </c>
+      <c r="C315">
+        <v>9227</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B316" s="2">
+        <v>7633</v>
+      </c>
+      <c r="C316">
+        <v>9506</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B317" s="2">
+        <v>1005</v>
+      </c>
+      <c r="C317">
+        <v>7743</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B318" s="2">
+        <v>4180</v>
+      </c>
+      <c r="C318">
+        <v>5028</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B319" s="2">
+        <v>1544</v>
+      </c>
+      <c r="C319">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B320" s="2">
+        <v>6293</v>
+      </c>
+      <c r="C320">
+        <v>6878</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B321" s="2">
+        <v>1276</v>
+      </c>
+      <c r="C321">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B322" s="2">
+        <v>4607</v>
+      </c>
+      <c r="C322">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B323" s="2">
+        <v>5156</v>
+      </c>
+      <c r="C323">
+        <v>9549</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B324" s="2">
+        <v>5841</v>
+      </c>
+      <c r="C324">
+        <v>5127</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B325" s="2">
+        <v>7949</v>
+      </c>
+      <c r="C325">
+        <v>4815</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B326" s="2">
+        <v>8129</v>
+      </c>
+      <c r="C326">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B327" s="2">
+        <v>7287</v>
+      </c>
+      <c r="C327">
+        <v>3511</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B328" s="2">
+        <v>8291</v>
+      </c>
+      <c r="C328">
+        <v>6549</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B329" s="2">
+        <v>9737</v>
+      </c>
+      <c r="C329">
+        <v>9701</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B330" s="2">
+        <v>1793</v>
+      </c>
+      <c r="C330">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B331" s="2">
+        <v>9696</v>
+      </c>
+      <c r="C331">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B332" s="2">
+        <v>3183</v>
+      </c>
+      <c r="C332">
+        <v>4652</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B333" s="2">
+        <v>7277</v>
+      </c>
+      <c r="C333">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B334" s="2">
+        <v>5402</v>
+      </c>
+      <c r="C334">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B335" s="2">
+        <v>7128</v>
+      </c>
+      <c r="C335">
+        <v>2825</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B336" s="2">
+        <v>3985</v>
+      </c>
+      <c r="C336">
+        <v>9097</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B337" s="2">
+        <v>2190</v>
+      </c>
+      <c r="C337">
+        <v>3719</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B338" s="2">
+        <v>4366</v>
+      </c>
+      <c r="C338">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B339" s="2">
+        <v>2180</v>
+      </c>
+      <c r="C339">
+        <v>8661</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B340" s="2">
+        <v>8359</v>
+      </c>
+      <c r="C340">
+        <v>4756</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B341" s="2">
+        <v>5641</v>
+      </c>
+      <c r="C341">
+        <v>4612</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B342" s="2">
+        <v>3147</v>
+      </c>
+      <c r="C342">
+        <v>4828</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B343" s="2">
+        <v>8199</v>
+      </c>
+      <c r="C343">
+        <v>8637</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B344" s="2">
+        <v>6031</v>
+      </c>
+      <c r="C344">
+        <v>9965</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B345" s="2">
+        <v>4165</v>
+      </c>
+      <c r="C345">
+        <v>5878</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B346" s="2">
+        <v>4843</v>
+      </c>
+      <c r="C346">
+        <v>4999</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B347" s="2">
+        <v>8817</v>
+      </c>
+      <c r="C347">
+        <v>6028</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B348" s="2">
+        <v>1431</v>
+      </c>
+      <c r="C348">
+        <v>4604</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B349" s="2">
+        <v>7836</v>
+      </c>
+      <c r="C349">
+        <v>5038</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B350" s="2">
+        <v>3652</v>
+      </c>
+      <c r="C350">
+        <v>6691</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B351" s="2">
+        <v>6227</v>
+      </c>
+      <c r="C351">
+        <v>5807</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B352" s="2">
+        <v>2525</v>
+      </c>
+      <c r="C352">
+        <v>9286</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B353" s="2">
+        <v>8775</v>
+      </c>
+      <c r="C353">
+        <v>5846</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B354" s="2">
+        <v>6293</v>
+      </c>
+      <c r="C354">
+        <v>8004</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B355" s="2">
+        <v>8356</v>
+      </c>
+      <c r="C355">
+        <v>7574</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B356" s="2">
+        <v>8824</v>
+      </c>
+      <c r="C356">
+        <v>5605</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B357" s="2">
+        <v>4248</v>
+      </c>
+      <c r="C357">
+        <v>4998</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B358" s="2">
+        <v>6848</v>
+      </c>
+      <c r="C358">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B359" s="2">
+        <v>2748</v>
+      </c>
+      <c r="C359">
+        <v>8933</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B360" s="2">
+        <v>8803</v>
+      </c>
+      <c r="C360">
+        <v>9894</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B361" s="2">
+        <v>5861</v>
+      </c>
+      <c r="C361">
+        <v>6385</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B362" s="2">
+        <v>3812</v>
+      </c>
+      <c r="C362">
+        <v>8562</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B363" s="2">
+        <v>8270</v>
+      </c>
+      <c r="C363">
+        <v>4401</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B364" s="2">
+        <v>6623</v>
+      </c>
+      <c r="C364">
+        <v>4352</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B365" s="2">
+        <v>2795</v>
+      </c>
+      <c r="C365">
+        <v>8246</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B366" s="2">
+        <v>7044</v>
+      </c>
+      <c r="C366">
+        <v>5568</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B367" s="2">
+        <v>3357</v>
+      </c>
+      <c r="C367">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B368" s="2">
+        <v>6322</v>
+      </c>
+      <c r="C368">
+        <v>8478</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B369" s="2">
+        <v>6713</v>
+      </c>
+      <c r="C369">
+        <v>5273</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B370" s="2">
+        <v>6769</v>
+      </c>
+      <c r="C370">
+        <v>8803</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B371" s="2">
+        <v>3094</v>
+      </c>
+      <c r="C371">
+        <v>4627</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B372" s="2">
+        <v>9084</v>
+      </c>
+      <c r="C372">
+        <v>8601</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B373" s="2">
+        <v>7154</v>
+      </c>
+      <c r="C373">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B374" s="2">
+        <v>4530</v>
+      </c>
+      <c r="C374">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B375" s="2">
+        <v>1477</v>
+      </c>
+      <c r="C375">
+        <v>6721</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B376" s="2">
+        <v>3009</v>
+      </c>
+      <c r="C376">
+        <v>7225</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B377" s="2">
+        <v>3648</v>
+      </c>
+      <c r="C377">
+        <v>8729</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B378" s="2">
+        <v>8310</v>
+      </c>
+      <c r="C378">
+        <v>2929</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B379" s="2">
+        <v>6950</v>
+      </c>
+      <c r="C379">
+        <v>6554</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B380" s="2">
+        <v>4102</v>
+      </c>
+      <c r="C380">
+        <v>3790</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B381" s="2">
+        <v>1641</v>
+      </c>
+      <c r="C381">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B382" s="2">
+        <v>7852</v>
+      </c>
+      <c r="C382">
+        <v>6950</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B383" s="2">
+        <v>1931</v>
+      </c>
+      <c r="C383">
+        <v>3520</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B384" s="2">
+        <v>3166</v>
+      </c>
+      <c r="C384">
+        <v>9447</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B385" s="2">
+        <v>9654</v>
+      </c>
+      <c r="C385">
+        <v>9542</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B386" s="2">
+        <v>5576</v>
+      </c>
+      <c r="C386">
+        <v>7418</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B387" s="2">
+        <v>8350</v>
+      </c>
+      <c r="C387">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B388" s="2">
+        <v>2994</v>
+      </c>
+      <c r="C388">
+        <v>3681</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B389" s="2">
+        <v>1025</v>
+      </c>
+      <c r="C389">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B390" s="2">
+        <v>8908</v>
+      </c>
+      <c r="C390">
+        <v>9125</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B391" s="2">
+        <v>4292</v>
+      </c>
+      <c r="C391">
+        <v>8076</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B392" s="2">
+        <v>6378</v>
+      </c>
+      <c r="C392">
+        <v>4511</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B393" s="2">
+        <v>3247</v>
+      </c>
+      <c r="C393">
+        <v>8405</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B394" s="2">
+        <v>7167</v>
+      </c>
+      <c r="C394">
+        <v>9087</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B395" s="2">
+        <v>5771</v>
+      </c>
+      <c r="C395">
+        <v>8687</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B396" s="2">
+        <v>2141</v>
+      </c>
+      <c r="C396">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B397" s="2">
+        <v>3455</v>
+      </c>
+      <c r="C397">
+        <v>8335</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B398" s="2">
+        <v>8852</v>
+      </c>
+      <c r="C398">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B399" s="2">
+        <v>8872</v>
+      </c>
+      <c r="C399">
+        <v>7487</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B400" s="2">
+        <v>2530</v>
+      </c>
+      <c r="C400">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B401" s="2">
+        <v>3574</v>
+      </c>
+      <c r="C401">
+        <v>4035</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B402" s="2">
+        <v>1190</v>
+      </c>
+      <c r="C402">
+        <v>7741</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B403" s="2">
+        <v>8405</v>
+      </c>
+      <c r="C403">
+        <v>4540</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B404" s="2">
+        <v>6438</v>
+      </c>
+      <c r="C404">
+        <v>6611</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B405" s="2">
+        <v>1764</v>
+      </c>
+      <c r="C405">
+        <v>9537</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B406" s="2">
+        <v>7317</v>
+      </c>
+      <c r="C406">
+        <v>8205</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B407" s="2">
+        <v>6951</v>
+      </c>
+      <c r="C407">
+        <v>3843</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B408" s="2">
+        <v>7286</v>
+      </c>
+      <c r="C408">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B409" s="2">
+        <v>2061</v>
+      </c>
+      <c r="C409">
+        <v>3696</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B410" s="2">
+        <v>8938</v>
+      </c>
+      <c r="C410">
+        <v>6804</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B411" s="2">
+        <v>1782</v>
+      </c>
+      <c r="C411">
+        <v>7826</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B412" s="2">
+        <v>4117</v>
+      </c>
+      <c r="C412">
+        <v>9536</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B413" s="2">
+        <v>6443</v>
+      </c>
+      <c r="C413">
+        <v>7436</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B414" s="2">
+        <v>3746</v>
+      </c>
+      <c r="C414">
+        <v>8672</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B415" s="2">
+        <v>3354</v>
+      </c>
+      <c r="C415">
+        <v>4466</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B416" s="2">
+        <v>3711</v>
+      </c>
+      <c r="C416">
+        <v>6693</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B417" s="2">
+        <v>8133</v>
+      </c>
+      <c r="C417">
+        <v>4090</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B418" s="2">
+        <v>7280</v>
+      </c>
+      <c r="C418">
+        <v>5627</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B419" s="2">
+        <v>2819</v>
+      </c>
+      <c r="C419">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B420" s="2">
+        <v>5263</v>
+      </c>
+      <c r="C420">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B421" s="2">
+        <v>2426</v>
+      </c>
+      <c r="C421">
+        <v>7310</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B422" s="2">
+        <v>2806</v>
+      </c>
+      <c r="C422">
+        <v>7596</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B423" s="2">
+        <v>8817</v>
+      </c>
+      <c r="C423">
+        <v>6130</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B424" s="2">
+        <v>2139</v>
+      </c>
+      <c r="C424">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B425" s="2">
+        <v>1467</v>
+      </c>
+      <c r="C425">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B426" s="2">
+        <v>2895</v>
+      </c>
+      <c r="C426">
+        <v>4244</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B427" s="2">
+        <v>9236</v>
+      </c>
+      <c r="C427">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B428" s="2">
+        <v>5430</v>
+      </c>
+      <c r="C428">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B429" s="2">
+        <v>8016</v>
+      </c>
+      <c r="C429">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B430" s="2">
+        <v>5851</v>
+      </c>
+      <c r="C430">
+        <v>8920</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B431" s="2">
+        <v>1471</v>
+      </c>
+      <c r="C431">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B432" s="2">
+        <v>4106</v>
+      </c>
+      <c r="C432">
+        <v>3747</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B433" s="2">
+        <v>4366</v>
+      </c>
+      <c r="C433">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B434" s="2">
+        <v>6005</v>
+      </c>
+      <c r="C434">
+        <v>5256</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B435" s="2">
+        <v>5797</v>
+      </c>
+      <c r="C435">
+        <v>6349</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B436" s="2">
+        <v>3791</v>
+      </c>
+      <c r="C436">
+        <v>3844</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B437" s="2">
+        <v>3625</v>
+      </c>
+      <c r="C437">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B438" s="2">
+        <v>2962</v>
+      </c>
+      <c r="C438">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B439" s="2">
+        <v>3800</v>
+      </c>
+      <c r="C439">
+        <v>8588</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B440" s="2">
+        <v>9641</v>
+      </c>
+      <c r="C440">
+        <v>5212</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B441" s="2">
+        <v>5264</v>
+      </c>
+      <c r="C441">
+        <v>5785</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B442" s="2">
+        <v>3801</v>
+      </c>
+      <c r="C442">
+        <v>5811</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B443" s="2">
+        <v>9368</v>
+      </c>
+      <c r="C443">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B444" s="2">
+        <v>3662</v>
+      </c>
+      <c r="C444">
+        <v>6703</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B445" s="2">
+        <v>6054</v>
+      </c>
+      <c r="C445">
+        <v>3346</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B446" s="2">
+        <v>9151</v>
+      </c>
+      <c r="C446">
+        <v>4407</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B447" s="2">
+        <v>4172</v>
+      </c>
+      <c r="C447">
+        <v>5116</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B448" s="2">
+        <v>7005</v>
+      </c>
+      <c r="C448">
+        <v>3327</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B449" s="2">
+        <v>4662</v>
+      </c>
+      <c r="C449">
+        <v>8224</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B450" s="2">
+        <v>4822</v>
+      </c>
+      <c r="C450">
+        <v>6480</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B451" s="2">
+        <v>6957</v>
+      </c>
+      <c r="C451">
+        <v>8773</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B452" s="2">
+        <v>7359</v>
+      </c>
+      <c r="C452">
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B453" s="2">
+        <v>9019</v>
+      </c>
+      <c r="C453">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B454" s="2">
+        <v>8037</v>
+      </c>
+      <c r="C454">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B455" s="2">
+        <v>6186</v>
+      </c>
+      <c r="C455">
+        <v>7726</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B456" s="2">
+        <v>2381</v>
+      </c>
+      <c r="C456">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B457" s="2">
+        <v>9887</v>
+      </c>
+      <c r="C457">
+        <v>6739</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B458" s="2">
+        <v>2099</v>
+      </c>
+      <c r="C458">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B459" s="2">
+        <v>4113</v>
+      </c>
+      <c r="C459">
+        <v>3773</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B460" s="2">
+        <v>4768</v>
+      </c>
+      <c r="C460">
+        <v>5879</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B461" s="2">
+        <v>2548</v>
+      </c>
+      <c r="C461">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B462" s="2">
+        <v>3496</v>
+      </c>
+      <c r="C462">
+        <v>3504</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B463" s="2">
+        <v>3556</v>
+      </c>
+      <c r="C463">
+        <v>7166</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B464" s="2">
+        <v>7808</v>
+      </c>
+      <c r="C464">
+        <v>6221</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B465" s="2">
+        <v>8573</v>
+      </c>
+      <c r="C465">
+        <v>3878</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B466" s="2">
+        <v>2973</v>
+      </c>
+      <c r="C466">
+        <v>5647</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B467" s="2">
+        <v>5462</v>
+      </c>
+      <c r="C467">
+        <v>5740</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B468" s="2">
+        <v>2442</v>
+      </c>
+      <c r="C468">
+        <v>3572</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B469" s="2">
+        <v>6401</v>
+      </c>
+      <c r="C469">
+        <v>5666</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B470" s="2">
+        <v>5374</v>
+      </c>
+      <c r="C470">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B471" s="2">
+        <v>9193</v>
+      </c>
+      <c r="C471">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="A472" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B472" s="2">
+        <v>7689</v>
+      </c>
+      <c r="C472">
+        <v>7245</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B473" s="2">
+        <v>4862</v>
+      </c>
+      <c r="C473">
+        <v>4195</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B474" s="2">
+        <v>3313</v>
+      </c>
+      <c r="C474">
+        <v>6731</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B475" s="2">
+        <v>4906</v>
+      </c>
+      <c r="C475">
+        <v>5491</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B476" s="2">
+        <v>6382</v>
+      </c>
+      <c r="C476">
+        <v>8112</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B477" s="2">
+        <v>7880</v>
+      </c>
+      <c r="C477">
+        <v>5399</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B478" s="2">
+        <v>3061</v>
+      </c>
+      <c r="C478">
+        <v>7696</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B479" s="2">
+        <v>3316</v>
+      </c>
+      <c r="C479">
+        <v>7463</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B480" s="2">
+        <v>9088</v>
+      </c>
+      <c r="C480">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B481" s="2">
+        <v>3610</v>
+      </c>
+      <c r="C481">
+        <v>5204</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B482" s="2">
+        <v>1548</v>
+      </c>
+      <c r="C482">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="A483" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B483" s="2">
+        <v>1125</v>
+      </c>
+      <c r="C483">
+        <v>9868</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="A484" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B484" s="2">
+        <v>8276</v>
+      </c>
+      <c r="C484">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="A485" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B485" s="2">
+        <v>9621</v>
+      </c>
+      <c r="C485">
+        <v>6745</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="A486" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B486" s="2">
+        <v>5852</v>
+      </c>
+      <c r="C486">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="A487" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B487" s="2">
+        <v>6232</v>
+      </c>
+      <c r="C487">
+        <v>5749</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="A488" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B488" s="2">
+        <v>7158</v>
+      </c>
+      <c r="C488">
+        <v>5171</v>
       </c>
     </row>
   </sheetData>
